--- a/test_resource/codeextractor_annot.xlsx
+++ b/test_resource/codeextractor_annot.xlsx
@@ -22,44 +22,48 @@
     <t>Uniq ID</t>
   </si>
   <si>
-    <t>CerberusTest.java_testCallMethod</t>
-  </si>
-  <si>
-    <t>CerberusTest.java_testCerebrusWithArguments</t>
-  </si>
-  <si>
-    <t>CerberusTest.java_testCerebruswithOutArguments</t>
-  </si>
-  <si>
-    <t>CerberusTest.java_testCerebruswithWrongArguments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    public void testCallMethod() throws Exception {
-        assertEquals(Integer.valueOf(0), new Cerberus().call());
-    }
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCallMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebrusWithArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithOutArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithWrongArguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Test_x000D_
+public void testCallMethod() throws Exception {_x000D_
+assertEquals(Integer.valueOf(0), new Cerberus().call())_x000D_
+}_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    public void testCerebrusWithArguments() {
-        getOriginalOutputStream().flush();
-        Cerberus.main(new String[] { "CPD" });
-    }
+    <t xml:space="preserve">@Test_x000D_
+public void testCerebrusWithArguments() {_x000D_
+getOriginalOutputStream().flush()_x000D_
+Cerberus.main(new String[] { "CPD" })_x000D_
+}_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    public void testCerebruswithOutArguments() {
-        Cerberus.main(new String[] {});
-        String expectedOutputString = getCerberusCommandLineUsageString();
-        assertEquals(expectedOutputString, getModifiedOutputStream().toString());
-    }
+    <t xml:space="preserve">@Test_x000D_
+public void testCerebruswithOutArguments() {_x000D_
+Cerberus.main(new String[] {})_x000D_
+String expectedOutputString = getCerberusCommandLineUsageString()_x000D_
+assertEquals(expectedOutputString, getModifiedOutputStream().toString())_x000D_
+}_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    public void testCerebruswithWrongArguments() {
-        String dummyArgument = "dummy argument";
-        Cerberus.main(new String[] { dummyArgument });
-        String expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: 'dummy argument'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString();
-    }
+    <t xml:space="preserve">@Test_x000D_
+public void testCerebruswithWrongArguments() {_x000D_
+String dummyArgument = "dummy argument"_x000D_
+Cerberus.main(new String[] { dummyArgument })_x000D_
+String expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: 'dummy argument'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString()_x000D_
+}_x000D_
 </t>
   </si>
 </sst>

--- a/test_resource/codeextractor_annot.xlsx
+++ b/test_resource/codeextractor_annot.xlsx
@@ -22,48 +22,48 @@
     <t>Uniq ID</t>
   </si>
   <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCallMethod</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebrusWithArguments</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithOutArguments</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithWrongArguments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Test_x000D_
-public void testCallMethod() throws Exception {_x000D_
-assertEquals(Integer.valueOf(0), new Cerberus().call())_x000D_
-}_x000D_
+    <t>/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCallMethod</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCerebrusWithArguments</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCerebruswithOutArguments</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCerebruswithWrongArguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Test
+public void testCallMethod() throws Exception {
+assertEquals(Integer.valueOf(0), new Cerberus().call())
+}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@Test_x000D_
-public void testCerebrusWithArguments() {_x000D_
-getOriginalOutputStream().flush()_x000D_
-Cerberus.main(new String[] { "CPD" })_x000D_
-}_x000D_
+    <t xml:space="preserve">@Test
+public void testCerebrusWithArguments() {
+getOriginalOutputStream().flush()
+Cerberus.main(new String[] { "CPD" })
+}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@Test_x000D_
-public void testCerebruswithOutArguments() {_x000D_
-Cerberus.main(new String[] {})_x000D_
-String expectedOutputString = getCerberusCommandLineUsageString()_x000D_
-assertEquals(expectedOutputString, getModifiedOutputStream().toString())_x000D_
-}_x000D_
+    <t xml:space="preserve">@Test
+public void testCerebruswithOutArguments() {
+Cerberus.main(new String[] {})
+String expectedOutputString = getCerberusCommandLineUsageString()
+assertEquals(expectedOutputString, getModifiedOutputStream().toString())
+}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@Test_x000D_
-public void testCerebruswithWrongArguments() {_x000D_
-String dummyArgument = "dummy argument"_x000D_
-Cerberus.main(new String[] { dummyArgument })_x000D_
-String expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: 'dummy argument'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString()_x000D_
-}_x000D_
+    <t xml:space="preserve">@Test
+public void testCerebruswithWrongArguments() {
+String dummyArgument = "dummy argument"
+Cerberus.main(new String[] { dummyArgument })
+String expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: 'dummy argument'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString()
+}
 </t>
   </si>
 </sst>

--- a/test_resource/codeextractor_annot.xlsx
+++ b/test_resource/codeextractor_annot.xlsx
@@ -16,54 +16,54 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>Uniq ID</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Uniq ID</t>
-  </si>
-  <si>
-    <t>/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCallMethod</t>
-  </si>
-  <si>
-    <t>/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCerebrusWithArguments</t>
-  </si>
-  <si>
-    <t>/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCerebruswithOutArguments</t>
-  </si>
-  <si>
-    <t>/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCerebruswithWrongArguments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Test
-public void testCallMethod() throws Exception {
-assertEquals(Integer.valueOf(0), new Cerberus().call())
-}
+    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithOutArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebrusWithArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCerebruswithWrongArguments</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\CerberusTest.java_testCallMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Test_x000D_
+public void testCerebruswithOutArguments() {_x000D_
+Cerberus.main(new String[] {})_x000D_
+String expectedOutputString = getCerberusCommandLineUsageString()_x000D_
+assertEquals(expectedOutputString, getModifiedOutputStream().toString())_x000D_
+}_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@Test
-public void testCerebrusWithArguments() {
-getOriginalOutputStream().flush()
-Cerberus.main(new String[] { "CPD" })
-}
+    <t xml:space="preserve">@Test_x000D_
+public void testCerebrusWithArguments() {_x000D_
+getOriginalOutputStream().flush()_x000D_
+Cerberus.main(new String[] { "CPD" })_x000D_
+}_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@Test
-public void testCerebruswithOutArguments() {
-Cerberus.main(new String[] {})
-String expectedOutputString = getCerberusCommandLineUsageString()
-assertEquals(expectedOutputString, getModifiedOutputStream().toString())
-}
+    <t xml:space="preserve">@Test_x000D_
+public void testCerebruswithWrongArguments() {_x000D_
+String dummyArgument = "dummy argument"_x000D_
+Cerberus.main(new String[] { dummyArgument })_x000D_
+String expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: 'dummy argument'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString()_x000D_
+}_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@Test
-public void testCerebruswithWrongArguments() {
-String dummyArgument = "dummy argument"
-Cerberus.main(new String[] { dummyArgument })
-String expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: 'dummy argument'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString()
-}
+    <t xml:space="preserve">@Test_x000D_
+public void testCallMethod() throws Exception {_x000D_
+assertEquals(Integer.valueOf(0), new Cerberus().call())_x000D_
+}_x000D_
 </t>
   </si>
 </sst>
@@ -422,49 +422,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
